--- a/SuppXLS/Scen_B_SYS_Bio_DelivCost.xlsx
+++ b/SuppXLS/Scen_B_SYS_Bio_DelivCost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2026981F-5B35-4AEC-9E57-517DAA7D31A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1817A-DF99-4488-88CD-336495D654EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="20" r:id="rId1"/>
@@ -359,9 +359,6 @@
     <t>CURR</t>
   </si>
   <si>
-    <t>EUR11</t>
-  </si>
-  <si>
     <t>Fossil fuels import prices</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>Specify fuel delivery cost</t>
+  </si>
+  <si>
+    <t>MEUR2011</t>
   </si>
 </sst>
 </file>
@@ -2569,25 +2569,25 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="27" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="27" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="27" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="27" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="27" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="27" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="27" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="27" customWidth="1"/>
     <col min="13" max="13" width="10" style="27" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="27" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="27"/>
+    <col min="14" max="14" width="11.3984375" style="27" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="27" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="113"/>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -2615,7 +2615,7 @@
       <c r="Y1" s="114"/>
       <c r="Z1" s="114"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="113"/>
       <c r="B2" s="113"/>
       <c r="C2" s="113"/>
@@ -2643,7 +2643,7 @@
       <c r="Y2" s="114"/>
       <c r="Z2" s="114"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="113"/>
       <c r="B3" s="113"/>
       <c r="C3" s="113"/>
@@ -2671,7 +2671,7 @@
       <c r="Y3" s="114"/>
       <c r="Z3" s="114"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="113"/>
       <c r="B4" s="113"/>
       <c r="C4" s="113"/>
@@ -2699,7 +2699,7 @@
       <c r="Y4" s="114"/>
       <c r="Z4" s="114"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="113"/>
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
@@ -2727,7 +2727,7 @@
       <c r="Y5" s="114"/>
       <c r="Z5" s="114"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="113"/>
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
@@ -2755,7 +2755,7 @@
       <c r="Y6" s="114"/>
       <c r="Z6" s="114"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="113"/>
       <c r="B7" s="113"/>
       <c r="C7" s="113"/>
@@ -2783,7 +2783,7 @@
       <c r="Y7" s="114"/>
       <c r="Z7" s="114"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="113"/>
       <c r="B8" s="113"/>
       <c r="C8" s="113"/>
@@ -2811,7 +2811,7 @@
       <c r="Y8" s="114"/>
       <c r="Z8" s="114"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="113"/>
       <c r="B9" s="113"/>
       <c r="C9" s="113"/>
@@ -2839,7 +2839,7 @@
       <c r="Y9" s="114"/>
       <c r="Z9" s="114"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="113"/>
       <c r="B10" s="113"/>
       <c r="C10" s="113"/>
@@ -2867,7 +2867,7 @@
       <c r="Y10" s="114"/>
       <c r="Z10" s="114"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="113"/>
       <c r="B11" s="113"/>
       <c r="C11" s="113"/>
@@ -2895,7 +2895,7 @@
       <c r="Y11" s="114"/>
       <c r="Z11" s="114"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="113"/>
       <c r="B12" s="113"/>
       <c r="C12" s="113"/>
@@ -2923,7 +2923,7 @@
       <c r="Y12" s="114"/>
       <c r="Z12" s="114"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="113"/>
       <c r="B13" s="113"/>
       <c r="C13" s="113"/>
@@ -2951,7 +2951,7 @@
       <c r="Y13" s="114"/>
       <c r="Z13" s="114"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="113"/>
       <c r="B14" s="113"/>
       <c r="C14" s="113"/>
@@ -2979,7 +2979,7 @@
       <c r="Y14" s="114"/>
       <c r="Z14" s="114"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="113"/>
       <c r="B15" s="113"/>
       <c r="C15" s="113"/>
@@ -3007,9 +3007,9 @@
       <c r="Y15" s="114"/>
       <c r="Z15" s="114"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="129"/>
       <c r="C16" s="129"/>
@@ -3037,7 +3037,7 @@
       <c r="Y16" s="114"/>
       <c r="Z16" s="114"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="117"/>
       <c r="B17" s="117"/>
       <c r="C17" s="117"/>
@@ -3065,7 +3065,7 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="117"/>
       <c r="B18" s="117"/>
       <c r="C18" s="117"/>
@@ -3093,12 +3093,12 @@
       <c r="Y18" s="114"/>
       <c r="Z18" s="114"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="128"/>
       <c r="D19" s="128"/>
@@ -3125,12 +3125,12 @@
       <c r="Y19" s="114"/>
       <c r="Z19" s="114"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="128"/>
       <c r="D20" s="128"/>
@@ -3157,12 +3157,12 @@
       <c r="Y20" s="114"/>
       <c r="Z20" s="114"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="123"/>
       <c r="D21" s="123"/>
@@ -3189,7 +3189,7 @@
       <c r="Y21" s="114"/>
       <c r="Z21" s="114"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="120"/>
       <c r="B22" s="123"/>
       <c r="C22" s="123"/>
@@ -3217,12 +3217,12 @@
       <c r="Y22" s="114"/>
       <c r="Z22" s="114"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="128" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="128"/>
       <c r="D23" s="128"/>
@@ -3249,10 +3249,10 @@
       <c r="Y23" s="114"/>
       <c r="Z23" s="114"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="120"/>
       <c r="B24" s="123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="123"/>
       <c r="D24" s="123"/>
@@ -3279,7 +3279,7 @@
       <c r="Y24" s="114"/>
       <c r="Z24" s="114"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="120"/>
       <c r="B25" s="123"/>
       <c r="C25" s="123"/>
@@ -3307,12 +3307,12 @@
       <c r="Y25" s="114"/>
       <c r="Z25" s="114"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="128"/>
       <c r="D26" s="128"/>
@@ -3339,7 +3339,7 @@
       <c r="Y26" s="114"/>
       <c r="Z26" s="114"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="120"/>
       <c r="B27" s="123"/>
       <c r="C27" s="123"/>
@@ -3367,7 +3367,7 @@
       <c r="Y27" s="114"/>
       <c r="Z27" s="114"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="120"/>
       <c r="B28" s="123"/>
       <c r="C28" s="123"/>
@@ -3395,9 +3395,9 @@
       <c r="Y28" s="114"/>
       <c r="Z28" s="114"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="124">
         <v>1</v>
@@ -3427,12 +3427,12 @@
       <c r="Y29" s="114"/>
       <c r="Z29" s="114"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="130" t="s">
         <v>97</v>
-      </c>
-      <c r="B30" s="130" t="s">
-        <v>98</v>
       </c>
       <c r="C30" s="128"/>
       <c r="D30" s="128"/>
@@ -3459,12 +3459,12 @@
       <c r="Y30" s="114"/>
       <c r="Z30" s="114"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="128" t="s">
         <v>99</v>
-      </c>
-      <c r="B31" s="128" t="s">
-        <v>100</v>
       </c>
       <c r="C31" s="128"/>
       <c r="D31" s="128"/>
@@ -3491,10 +3491,10 @@
       <c r="Y31" s="114"/>
       <c r="Z31" s="114"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="126"/>
       <c r="B32" s="127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="126"/>
       <c r="D32" s="126"/>
@@ -3521,7 +3521,7 @@
       <c r="Y32" s="114"/>
       <c r="Z32" s="114"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="113"/>
       <c r="B33" s="113"/>
       <c r="C33" s="113"/>
@@ -3549,7 +3549,7 @@
       <c r="Y33" s="114"/>
       <c r="Z33" s="114"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="113"/>
       <c r="B34" s="113"/>
       <c r="C34" s="113"/>
@@ -3577,7 +3577,7 @@
       <c r="Y34" s="114"/>
       <c r="Z34" s="114"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="113"/>
       <c r="B35" s="113"/>
       <c r="C35" s="113"/>
@@ -3605,7 +3605,7 @@
       <c r="Y35" s="114"/>
       <c r="Z35" s="114"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="113"/>
       <c r="B36" s="113"/>
       <c r="C36" s="113"/>
@@ -3633,7 +3633,7 @@
       <c r="Y36" s="114"/>
       <c r="Z36" s="114"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="113"/>
       <c r="B37" s="113"/>
       <c r="C37" s="113"/>
@@ -3661,7 +3661,7 @@
       <c r="Y37" s="114"/>
       <c r="Z37" s="114"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="113"/>
       <c r="B38" s="113"/>
       <c r="C38" s="113"/>
@@ -3689,7 +3689,7 @@
       <c r="Y38" s="114"/>
       <c r="Z38" s="114"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="113"/>
       <c r="B39" s="113"/>
       <c r="C39" s="113"/>
@@ -3717,7 +3717,7 @@
       <c r="Y39" s="114"/>
       <c r="Z39" s="114"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="113"/>
       <c r="B40" s="113"/>
       <c r="C40" s="113"/>
@@ -3745,7 +3745,7 @@
       <c r="Y40" s="114"/>
       <c r="Z40" s="114"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="113"/>
       <c r="B41" s="113"/>
       <c r="C41" s="113"/>
@@ -3773,7 +3773,7 @@
       <c r="Y41" s="114"/>
       <c r="Z41" s="114"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="113"/>
       <c r="B42" s="113"/>
       <c r="C42" s="113"/>
@@ -3801,7 +3801,7 @@
       <c r="Y42" s="114"/>
       <c r="Z42" s="114"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="114"/>
       <c r="B43" s="114"/>
       <c r="C43" s="114"/>
@@ -3829,7 +3829,7 @@
       <c r="Y43" s="114"/>
       <c r="Z43" s="114"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="114"/>
       <c r="B44" s="114"/>
       <c r="C44" s="114"/>
@@ -3857,7 +3857,7 @@
       <c r="Y44" s="114"/>
       <c r="Z44" s="114"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="114"/>
       <c r="B45" s="114"/>
       <c r="C45" s="114"/>
@@ -3885,7 +3885,7 @@
       <c r="Y45" s="114"/>
       <c r="Z45" s="114"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="114"/>
       <c r="B46" s="114"/>
       <c r="C46" s="114"/>
@@ -3913,7 +3913,7 @@
       <c r="Y46" s="114"/>
       <c r="Z46" s="114"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="114"/>
       <c r="B47" s="114"/>
       <c r="C47" s="114"/>
@@ -3941,7 +3941,7 @@
       <c r="Y47" s="114"/>
       <c r="Z47" s="114"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="114"/>
       <c r="B48" s="114"/>
       <c r="C48" s="114"/>
@@ -3969,7 +3969,7 @@
       <c r="Y48" s="114"/>
       <c r="Z48" s="114"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="114"/>
       <c r="B49" s="114"/>
       <c r="C49" s="114"/>
@@ -3997,7 +3997,7 @@
       <c r="Y49" s="114"/>
       <c r="Z49" s="114"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="114"/>
       <c r="B50" s="114"/>
       <c r="C50" s="114"/>
@@ -4025,7 +4025,7 @@
       <c r="Y50" s="114"/>
       <c r="Z50" s="114"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="114"/>
       <c r="B51" s="114"/>
       <c r="C51" s="114"/>
@@ -4053,7 +4053,7 @@
       <c r="Y51" s="114"/>
       <c r="Z51" s="114"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="114"/>
       <c r="B52" s="114"/>
       <c r="C52" s="114"/>
@@ -4081,7 +4081,7 @@
       <c r="Y52" s="114"/>
       <c r="Z52" s="114"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="114"/>
       <c r="B53" s="114"/>
       <c r="C53" s="114"/>
@@ -4109,7 +4109,7 @@
       <c r="Y53" s="114"/>
       <c r="Z53" s="114"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="114"/>
       <c r="B54" s="114"/>
       <c r="C54" s="114"/>
@@ -4137,7 +4137,7 @@
       <c r="Y54" s="114"/>
       <c r="Z54" s="114"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="114"/>
       <c r="B55" s="114"/>
       <c r="C55" s="114"/>
@@ -4165,7 +4165,7 @@
       <c r="Y55" s="114"/>
       <c r="Z55" s="114"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="114"/>
       <c r="B56" s="114"/>
       <c r="C56" s="114"/>
@@ -4193,7 +4193,7 @@
       <c r="Y56" s="114"/>
       <c r="Z56" s="114"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="114"/>
       <c r="B57" s="114"/>
       <c r="C57" s="114"/>
@@ -4221,7 +4221,7 @@
       <c r="Y57" s="114"/>
       <c r="Z57" s="114"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="114"/>
       <c r="B58" s="114"/>
       <c r="C58" s="114"/>
@@ -4249,7 +4249,7 @@
       <c r="Y58" s="114"/>
       <c r="Z58" s="114"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="114"/>
       <c r="B59" s="114"/>
       <c r="C59" s="114"/>
@@ -4277,7 +4277,7 @@
       <c r="Y59" s="114"/>
       <c r="Z59" s="114"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="114"/>
       <c r="B60" s="114"/>
       <c r="C60" s="114"/>
@@ -4305,7 +4305,7 @@
       <c r="Y60" s="114"/>
       <c r="Z60" s="114"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="114"/>
       <c r="B61" s="114"/>
       <c r="C61" s="114"/>
@@ -4333,7 +4333,7 @@
       <c r="Y61" s="114"/>
       <c r="Z61" s="114"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="114"/>
       <c r="B62" s="114"/>
       <c r="C62" s="114"/>
@@ -4361,7 +4361,7 @@
       <c r="Y62" s="114"/>
       <c r="Z62" s="114"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="114"/>
       <c r="B63" s="114"/>
       <c r="C63" s="114"/>
@@ -4389,7 +4389,7 @@
       <c r="Y63" s="114"/>
       <c r="Z63" s="114"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="114"/>
       <c r="B64" s="114"/>
       <c r="C64" s="114"/>
@@ -4417,7 +4417,7 @@
       <c r="Y64" s="114"/>
       <c r="Z64" s="114"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="114"/>
       <c r="B65" s="114"/>
       <c r="C65" s="114"/>
@@ -4445,7 +4445,7 @@
       <c r="Y65" s="114"/>
       <c r="Z65" s="114"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="114"/>
       <c r="B66" s="114"/>
       <c r="C66" s="114"/>
@@ -4473,7 +4473,7 @@
       <c r="Y66" s="114"/>
       <c r="Z66" s="114"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="114"/>
       <c r="B67" s="114"/>
       <c r="C67" s="114"/>
@@ -4501,7 +4501,7 @@
       <c r="Y67" s="114"/>
       <c r="Z67" s="114"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="114"/>
       <c r="B68" s="114"/>
       <c r="C68" s="114"/>
@@ -4529,7 +4529,7 @@
       <c r="Y68" s="114"/>
       <c r="Z68" s="114"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="114"/>
       <c r="B69" s="114"/>
       <c r="C69" s="114"/>
@@ -4557,7 +4557,7 @@
       <c r="Y69" s="114"/>
       <c r="Z69" s="114"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="114"/>
       <c r="B70" s="114"/>
       <c r="C70" s="114"/>
@@ -4585,7 +4585,7 @@
       <c r="Y70" s="114"/>
       <c r="Z70" s="114"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="114"/>
       <c r="B71" s="114"/>
       <c r="C71" s="114"/>
@@ -4613,7 +4613,7 @@
       <c r="Y71" s="114"/>
       <c r="Z71" s="114"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="114"/>
       <c r="B72" s="114"/>
       <c r="C72" s="114"/>
@@ -4641,7 +4641,7 @@
       <c r="Y72" s="114"/>
       <c r="Z72" s="114"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="114"/>
       <c r="B73" s="114"/>
       <c r="C73" s="114"/>
@@ -4669,7 +4669,7 @@
       <c r="Y73" s="114"/>
       <c r="Z73" s="114"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="114"/>
       <c r="B74" s="114"/>
       <c r="C74" s="114"/>
@@ -4697,7 +4697,7 @@
       <c r="Y74" s="114"/>
       <c r="Z74" s="114"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="114"/>
       <c r="B75" s="114"/>
       <c r="C75" s="114"/>
@@ -4725,7 +4725,7 @@
       <c r="Y75" s="114"/>
       <c r="Z75" s="114"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="114"/>
       <c r="B76" s="114"/>
       <c r="C76" s="114"/>
@@ -4753,7 +4753,7 @@
       <c r="Y76" s="114"/>
       <c r="Z76" s="114"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="114"/>
       <c r="B77" s="114"/>
       <c r="C77" s="114"/>
@@ -4781,7 +4781,7 @@
       <c r="Y77" s="114"/>
       <c r="Z77" s="114"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="114"/>
       <c r="B78" s="114"/>
       <c r="C78" s="114"/>
@@ -4809,7 +4809,7 @@
       <c r="Y78" s="114"/>
       <c r="Z78" s="114"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="114"/>
       <c r="B79" s="114"/>
       <c r="C79" s="114"/>
@@ -4837,7 +4837,7 @@
       <c r="Y79" s="114"/>
       <c r="Z79" s="114"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="114"/>
       <c r="B80" s="114"/>
       <c r="C80" s="114"/>
@@ -4865,7 +4865,7 @@
       <c r="Y80" s="114"/>
       <c r="Z80" s="114"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="114"/>
       <c r="B81" s="114"/>
       <c r="C81" s="114"/>
@@ -4893,7 +4893,7 @@
       <c r="Y81" s="114"/>
       <c r="Z81" s="114"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="114"/>
       <c r="B82" s="114"/>
       <c r="C82" s="114"/>
@@ -4921,7 +4921,7 @@
       <c r="Y82" s="114"/>
       <c r="Z82" s="114"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="114"/>
       <c r="B83" s="114"/>
       <c r="C83" s="114"/>
@@ -4949,7 +4949,7 @@
       <c r="Y83" s="114"/>
       <c r="Z83" s="114"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="114"/>
       <c r="B84" s="114"/>
       <c r="C84" s="114"/>
@@ -4977,7 +4977,7 @@
       <c r="Y84" s="114"/>
       <c r="Z84" s="114"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="114"/>
       <c r="B85" s="114"/>
       <c r="C85" s="114"/>
@@ -5005,7 +5005,7 @@
       <c r="Y85" s="114"/>
       <c r="Z85" s="114"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="114"/>
       <c r="B86" s="114"/>
       <c r="C86" s="114"/>
@@ -5033,7 +5033,7 @@
       <c r="Y86" s="114"/>
       <c r="Z86" s="114"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="114"/>
       <c r="B87" s="114"/>
       <c r="C87" s="114"/>
@@ -5061,7 +5061,7 @@
       <c r="Y87" s="114"/>
       <c r="Z87" s="114"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="114"/>
       <c r="B88" s="114"/>
       <c r="C88" s="114"/>
@@ -5089,7 +5089,7 @@
       <c r="Y88" s="114"/>
       <c r="Z88" s="114"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="114"/>
       <c r="B89" s="114"/>
       <c r="C89" s="114"/>
@@ -5117,7 +5117,7 @@
       <c r="Y89" s="114"/>
       <c r="Z89" s="114"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="114"/>
       <c r="B90" s="114"/>
       <c r="C90" s="114"/>
@@ -5145,7 +5145,7 @@
       <c r="Y90" s="114"/>
       <c r="Z90" s="114"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="114"/>
       <c r="B91" s="114"/>
       <c r="C91" s="114"/>
@@ -5173,7 +5173,7 @@
       <c r="Y91" s="114"/>
       <c r="Z91" s="114"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="114"/>
       <c r="B92" s="114"/>
       <c r="C92" s="114"/>
@@ -5201,7 +5201,7 @@
       <c r="Y92" s="114"/>
       <c r="Z92" s="114"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="114"/>
       <c r="B93" s="114"/>
       <c r="C93" s="114"/>
@@ -5229,7 +5229,7 @@
       <c r="Y93" s="114"/>
       <c r="Z93" s="114"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="114"/>
       <c r="B94" s="114"/>
       <c r="C94" s="114"/>
@@ -5257,7 +5257,7 @@
       <c r="Y94" s="114"/>
       <c r="Z94" s="114"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="114"/>
       <c r="B95" s="114"/>
       <c r="C95" s="114"/>
@@ -5285,7 +5285,7 @@
       <c r="Y95" s="114"/>
       <c r="Z95" s="114"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="114"/>
       <c r="B96" s="114"/>
       <c r="C96" s="114"/>
@@ -5313,7 +5313,7 @@
       <c r="Y96" s="114"/>
       <c r="Z96" s="114"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="114"/>
       <c r="B97" s="114"/>
       <c r="C97" s="114"/>
@@ -5341,7 +5341,7 @@
       <c r="Y97" s="114"/>
       <c r="Z97" s="114"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="114"/>
       <c r="B98" s="114"/>
       <c r="C98" s="114"/>
@@ -5369,7 +5369,7 @@
       <c r="Y98" s="114"/>
       <c r="Z98" s="114"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="114"/>
       <c r="B99" s="114"/>
       <c r="C99" s="114"/>
@@ -5424,528 +5424,528 @@
   </sheetPr>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8" style="53" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="53"/>
-    <col min="3" max="3" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="9.85546875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" style="53"/>
+    <col min="3" max="3" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="9.86328125" style="53" customWidth="1"/>
     <col min="18" max="19" width="10" style="53" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="53" customWidth="1"/>
-    <col min="21" max="22" width="21.140625" style="53" customWidth="1"/>
-    <col min="23" max="253" width="17.28515625" style="53"/>
+    <col min="20" max="20" width="14.1328125" style="53" customWidth="1"/>
+    <col min="21" max="22" width="21.1328125" style="53" customWidth="1"/>
+    <col min="23" max="253" width="17.265625" style="53"/>
     <col min="254" max="254" width="8" style="53" customWidth="1"/>
-    <col min="255" max="255" width="17.28515625" style="53"/>
-    <col min="256" max="256" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="257" max="262" width="17.28515625" style="53"/>
-    <col min="263" max="263" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="266" max="509" width="17.28515625" style="53"/>
+    <col min="255" max="255" width="17.265625" style="53"/>
+    <col min="256" max="256" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="257" max="262" width="17.265625" style="53"/>
+    <col min="263" max="263" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="266" max="509" width="17.265625" style="53"/>
     <col min="510" max="510" width="8" style="53" customWidth="1"/>
-    <col min="511" max="511" width="17.28515625" style="53"/>
-    <col min="512" max="512" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="513" max="518" width="17.28515625" style="53"/>
-    <col min="519" max="519" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="522" max="765" width="17.28515625" style="53"/>
+    <col min="511" max="511" width="17.265625" style="53"/>
+    <col min="512" max="512" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="513" max="518" width="17.265625" style="53"/>
+    <col min="519" max="519" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="522" max="765" width="17.265625" style="53"/>
     <col min="766" max="766" width="8" style="53" customWidth="1"/>
-    <col min="767" max="767" width="17.28515625" style="53"/>
-    <col min="768" max="768" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="769" max="774" width="17.28515625" style="53"/>
-    <col min="775" max="775" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="778" max="1021" width="17.28515625" style="53"/>
+    <col min="767" max="767" width="17.265625" style="53"/>
+    <col min="768" max="768" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="769" max="774" width="17.265625" style="53"/>
+    <col min="775" max="775" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="778" max="1021" width="17.265625" style="53"/>
     <col min="1022" max="1022" width="8" style="53" customWidth="1"/>
-    <col min="1023" max="1023" width="17.28515625" style="53"/>
-    <col min="1024" max="1024" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1030" width="17.28515625" style="53"/>
-    <col min="1031" max="1031" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1277" width="17.28515625" style="53"/>
+    <col min="1023" max="1023" width="17.265625" style="53"/>
+    <col min="1024" max="1024" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1030" width="17.265625" style="53"/>
+    <col min="1031" max="1031" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1277" width="17.265625" style="53"/>
     <col min="1278" max="1278" width="8" style="53" customWidth="1"/>
-    <col min="1279" max="1279" width="17.28515625" style="53"/>
-    <col min="1280" max="1280" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1286" width="17.28515625" style="53"/>
-    <col min="1287" max="1287" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1533" width="17.28515625" style="53"/>
+    <col min="1279" max="1279" width="17.265625" style="53"/>
+    <col min="1280" max="1280" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1286" width="17.265625" style="53"/>
+    <col min="1287" max="1287" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1533" width="17.265625" style="53"/>
     <col min="1534" max="1534" width="8" style="53" customWidth="1"/>
-    <col min="1535" max="1535" width="17.28515625" style="53"/>
-    <col min="1536" max="1536" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1542" width="17.28515625" style="53"/>
-    <col min="1543" max="1543" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1789" width="17.28515625" style="53"/>
+    <col min="1535" max="1535" width="17.265625" style="53"/>
+    <col min="1536" max="1536" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1542" width="17.265625" style="53"/>
+    <col min="1543" max="1543" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1789" width="17.265625" style="53"/>
     <col min="1790" max="1790" width="8" style="53" customWidth="1"/>
-    <col min="1791" max="1791" width="17.28515625" style="53"/>
-    <col min="1792" max="1792" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1798" width="17.28515625" style="53"/>
-    <col min="1799" max="1799" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2045" width="17.28515625" style="53"/>
+    <col min="1791" max="1791" width="17.265625" style="53"/>
+    <col min="1792" max="1792" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1798" width="17.265625" style="53"/>
+    <col min="1799" max="1799" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2045" width="17.265625" style="53"/>
     <col min="2046" max="2046" width="8" style="53" customWidth="1"/>
-    <col min="2047" max="2047" width="17.28515625" style="53"/>
-    <col min="2048" max="2048" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2054" width="17.28515625" style="53"/>
-    <col min="2055" max="2055" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2301" width="17.28515625" style="53"/>
+    <col min="2047" max="2047" width="17.265625" style="53"/>
+    <col min="2048" max="2048" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2054" width="17.265625" style="53"/>
+    <col min="2055" max="2055" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2301" width="17.265625" style="53"/>
     <col min="2302" max="2302" width="8" style="53" customWidth="1"/>
-    <col min="2303" max="2303" width="17.28515625" style="53"/>
-    <col min="2304" max="2304" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2310" width="17.28515625" style="53"/>
-    <col min="2311" max="2311" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2557" width="17.28515625" style="53"/>
+    <col min="2303" max="2303" width="17.265625" style="53"/>
+    <col min="2304" max="2304" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2310" width="17.265625" style="53"/>
+    <col min="2311" max="2311" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2557" width="17.265625" style="53"/>
     <col min="2558" max="2558" width="8" style="53" customWidth="1"/>
-    <col min="2559" max="2559" width="17.28515625" style="53"/>
-    <col min="2560" max="2560" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2566" width="17.28515625" style="53"/>
-    <col min="2567" max="2567" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2813" width="17.28515625" style="53"/>
+    <col min="2559" max="2559" width="17.265625" style="53"/>
+    <col min="2560" max="2560" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2566" width="17.265625" style="53"/>
+    <col min="2567" max="2567" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2813" width="17.265625" style="53"/>
     <col min="2814" max="2814" width="8" style="53" customWidth="1"/>
-    <col min="2815" max="2815" width="17.28515625" style="53"/>
-    <col min="2816" max="2816" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2822" width="17.28515625" style="53"/>
-    <col min="2823" max="2823" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3069" width="17.28515625" style="53"/>
+    <col min="2815" max="2815" width="17.265625" style="53"/>
+    <col min="2816" max="2816" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2822" width="17.265625" style="53"/>
+    <col min="2823" max="2823" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3069" width="17.265625" style="53"/>
     <col min="3070" max="3070" width="8" style="53" customWidth="1"/>
-    <col min="3071" max="3071" width="17.28515625" style="53"/>
-    <col min="3072" max="3072" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3078" width="17.28515625" style="53"/>
-    <col min="3079" max="3079" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3325" width="17.28515625" style="53"/>
+    <col min="3071" max="3071" width="17.265625" style="53"/>
+    <col min="3072" max="3072" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3078" width="17.265625" style="53"/>
+    <col min="3079" max="3079" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3325" width="17.265625" style="53"/>
     <col min="3326" max="3326" width="8" style="53" customWidth="1"/>
-    <col min="3327" max="3327" width="17.28515625" style="53"/>
-    <col min="3328" max="3328" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3334" width="17.28515625" style="53"/>
-    <col min="3335" max="3335" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3581" width="17.28515625" style="53"/>
+    <col min="3327" max="3327" width="17.265625" style="53"/>
+    <col min="3328" max="3328" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3334" width="17.265625" style="53"/>
+    <col min="3335" max="3335" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3581" width="17.265625" style="53"/>
     <col min="3582" max="3582" width="8" style="53" customWidth="1"/>
-    <col min="3583" max="3583" width="17.28515625" style="53"/>
-    <col min="3584" max="3584" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3590" width="17.28515625" style="53"/>
-    <col min="3591" max="3591" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3837" width="17.28515625" style="53"/>
+    <col min="3583" max="3583" width="17.265625" style="53"/>
+    <col min="3584" max="3584" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3590" width="17.265625" style="53"/>
+    <col min="3591" max="3591" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3837" width="17.265625" style="53"/>
     <col min="3838" max="3838" width="8" style="53" customWidth="1"/>
-    <col min="3839" max="3839" width="17.28515625" style="53"/>
-    <col min="3840" max="3840" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3846" width="17.28515625" style="53"/>
-    <col min="3847" max="3847" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4093" width="17.28515625" style="53"/>
+    <col min="3839" max="3839" width="17.265625" style="53"/>
+    <col min="3840" max="3840" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3846" width="17.265625" style="53"/>
+    <col min="3847" max="3847" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4093" width="17.265625" style="53"/>
     <col min="4094" max="4094" width="8" style="53" customWidth="1"/>
-    <col min="4095" max="4095" width="17.28515625" style="53"/>
-    <col min="4096" max="4096" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4102" width="17.28515625" style="53"/>
-    <col min="4103" max="4103" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4349" width="17.28515625" style="53"/>
+    <col min="4095" max="4095" width="17.265625" style="53"/>
+    <col min="4096" max="4096" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4102" width="17.265625" style="53"/>
+    <col min="4103" max="4103" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4349" width="17.265625" style="53"/>
     <col min="4350" max="4350" width="8" style="53" customWidth="1"/>
-    <col min="4351" max="4351" width="17.28515625" style="53"/>
-    <col min="4352" max="4352" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4358" width="17.28515625" style="53"/>
-    <col min="4359" max="4359" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4605" width="17.28515625" style="53"/>
+    <col min="4351" max="4351" width="17.265625" style="53"/>
+    <col min="4352" max="4352" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4358" width="17.265625" style="53"/>
+    <col min="4359" max="4359" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4605" width="17.265625" style="53"/>
     <col min="4606" max="4606" width="8" style="53" customWidth="1"/>
-    <col min="4607" max="4607" width="17.28515625" style="53"/>
-    <col min="4608" max="4608" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4614" width="17.28515625" style="53"/>
-    <col min="4615" max="4615" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4861" width="17.28515625" style="53"/>
+    <col min="4607" max="4607" width="17.265625" style="53"/>
+    <col min="4608" max="4608" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4614" width="17.265625" style="53"/>
+    <col min="4615" max="4615" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4861" width="17.265625" style="53"/>
     <col min="4862" max="4862" width="8" style="53" customWidth="1"/>
-    <col min="4863" max="4863" width="17.28515625" style="53"/>
-    <col min="4864" max="4864" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4870" width="17.28515625" style="53"/>
-    <col min="4871" max="4871" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5117" width="17.28515625" style="53"/>
+    <col min="4863" max="4863" width="17.265625" style="53"/>
+    <col min="4864" max="4864" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4870" width="17.265625" style="53"/>
+    <col min="4871" max="4871" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5117" width="17.265625" style="53"/>
     <col min="5118" max="5118" width="8" style="53" customWidth="1"/>
-    <col min="5119" max="5119" width="17.28515625" style="53"/>
-    <col min="5120" max="5120" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5126" width="17.28515625" style="53"/>
-    <col min="5127" max="5127" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5373" width="17.28515625" style="53"/>
+    <col min="5119" max="5119" width="17.265625" style="53"/>
+    <col min="5120" max="5120" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5126" width="17.265625" style="53"/>
+    <col min="5127" max="5127" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5373" width="17.265625" style="53"/>
     <col min="5374" max="5374" width="8" style="53" customWidth="1"/>
-    <col min="5375" max="5375" width="17.28515625" style="53"/>
-    <col min="5376" max="5376" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5382" width="17.28515625" style="53"/>
-    <col min="5383" max="5383" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5629" width="17.28515625" style="53"/>
+    <col min="5375" max="5375" width="17.265625" style="53"/>
+    <col min="5376" max="5376" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5382" width="17.265625" style="53"/>
+    <col min="5383" max="5383" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5629" width="17.265625" style="53"/>
     <col min="5630" max="5630" width="8" style="53" customWidth="1"/>
-    <col min="5631" max="5631" width="17.28515625" style="53"/>
-    <col min="5632" max="5632" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5638" width="17.28515625" style="53"/>
-    <col min="5639" max="5639" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5885" width="17.28515625" style="53"/>
+    <col min="5631" max="5631" width="17.265625" style="53"/>
+    <col min="5632" max="5632" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5638" width="17.265625" style="53"/>
+    <col min="5639" max="5639" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5885" width="17.265625" style="53"/>
     <col min="5886" max="5886" width="8" style="53" customWidth="1"/>
-    <col min="5887" max="5887" width="17.28515625" style="53"/>
-    <col min="5888" max="5888" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5894" width="17.28515625" style="53"/>
-    <col min="5895" max="5895" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6141" width="17.28515625" style="53"/>
+    <col min="5887" max="5887" width="17.265625" style="53"/>
+    <col min="5888" max="5888" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5894" width="17.265625" style="53"/>
+    <col min="5895" max="5895" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6141" width="17.265625" style="53"/>
     <col min="6142" max="6142" width="8" style="53" customWidth="1"/>
-    <col min="6143" max="6143" width="17.28515625" style="53"/>
-    <col min="6144" max="6144" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6150" width="17.28515625" style="53"/>
-    <col min="6151" max="6151" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6397" width="17.28515625" style="53"/>
+    <col min="6143" max="6143" width="17.265625" style="53"/>
+    <col min="6144" max="6144" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6150" width="17.265625" style="53"/>
+    <col min="6151" max="6151" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6397" width="17.265625" style="53"/>
     <col min="6398" max="6398" width="8" style="53" customWidth="1"/>
-    <col min="6399" max="6399" width="17.28515625" style="53"/>
-    <col min="6400" max="6400" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6406" width="17.28515625" style="53"/>
-    <col min="6407" max="6407" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6653" width="17.28515625" style="53"/>
+    <col min="6399" max="6399" width="17.265625" style="53"/>
+    <col min="6400" max="6400" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6406" width="17.265625" style="53"/>
+    <col min="6407" max="6407" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6653" width="17.265625" style="53"/>
     <col min="6654" max="6654" width="8" style="53" customWidth="1"/>
-    <col min="6655" max="6655" width="17.28515625" style="53"/>
-    <col min="6656" max="6656" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6662" width="17.28515625" style="53"/>
-    <col min="6663" max="6663" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6909" width="17.28515625" style="53"/>
+    <col min="6655" max="6655" width="17.265625" style="53"/>
+    <col min="6656" max="6656" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6662" width="17.265625" style="53"/>
+    <col min="6663" max="6663" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6909" width="17.265625" style="53"/>
     <col min="6910" max="6910" width="8" style="53" customWidth="1"/>
-    <col min="6911" max="6911" width="17.28515625" style="53"/>
-    <col min="6912" max="6912" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6918" width="17.28515625" style="53"/>
-    <col min="6919" max="6919" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7165" width="17.28515625" style="53"/>
+    <col min="6911" max="6911" width="17.265625" style="53"/>
+    <col min="6912" max="6912" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6918" width="17.265625" style="53"/>
+    <col min="6919" max="6919" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7165" width="17.265625" style="53"/>
     <col min="7166" max="7166" width="8" style="53" customWidth="1"/>
-    <col min="7167" max="7167" width="17.28515625" style="53"/>
-    <col min="7168" max="7168" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7174" width="17.28515625" style="53"/>
-    <col min="7175" max="7175" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7421" width="17.28515625" style="53"/>
+    <col min="7167" max="7167" width="17.265625" style="53"/>
+    <col min="7168" max="7168" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7174" width="17.265625" style="53"/>
+    <col min="7175" max="7175" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7421" width="17.265625" style="53"/>
     <col min="7422" max="7422" width="8" style="53" customWidth="1"/>
-    <col min="7423" max="7423" width="17.28515625" style="53"/>
-    <col min="7424" max="7424" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7430" width="17.28515625" style="53"/>
-    <col min="7431" max="7431" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7677" width="17.28515625" style="53"/>
+    <col min="7423" max="7423" width="17.265625" style="53"/>
+    <col min="7424" max="7424" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7430" width="17.265625" style="53"/>
+    <col min="7431" max="7431" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7677" width="17.265625" style="53"/>
     <col min="7678" max="7678" width="8" style="53" customWidth="1"/>
-    <col min="7679" max="7679" width="17.28515625" style="53"/>
-    <col min="7680" max="7680" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7686" width="17.28515625" style="53"/>
-    <col min="7687" max="7687" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7933" width="17.28515625" style="53"/>
+    <col min="7679" max="7679" width="17.265625" style="53"/>
+    <col min="7680" max="7680" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7686" width="17.265625" style="53"/>
+    <col min="7687" max="7687" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7933" width="17.265625" style="53"/>
     <col min="7934" max="7934" width="8" style="53" customWidth="1"/>
-    <col min="7935" max="7935" width="17.28515625" style="53"/>
-    <col min="7936" max="7936" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7942" width="17.28515625" style="53"/>
-    <col min="7943" max="7943" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8189" width="17.28515625" style="53"/>
+    <col min="7935" max="7935" width="17.265625" style="53"/>
+    <col min="7936" max="7936" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7942" width="17.265625" style="53"/>
+    <col min="7943" max="7943" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8189" width="17.265625" style="53"/>
     <col min="8190" max="8190" width="8" style="53" customWidth="1"/>
-    <col min="8191" max="8191" width="17.28515625" style="53"/>
-    <col min="8192" max="8192" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8198" width="17.28515625" style="53"/>
-    <col min="8199" max="8199" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8445" width="17.28515625" style="53"/>
+    <col min="8191" max="8191" width="17.265625" style="53"/>
+    <col min="8192" max="8192" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8198" width="17.265625" style="53"/>
+    <col min="8199" max="8199" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8445" width="17.265625" style="53"/>
     <col min="8446" max="8446" width="8" style="53" customWidth="1"/>
-    <col min="8447" max="8447" width="17.28515625" style="53"/>
-    <col min="8448" max="8448" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8454" width="17.28515625" style="53"/>
-    <col min="8455" max="8455" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8701" width="17.28515625" style="53"/>
+    <col min="8447" max="8447" width="17.265625" style="53"/>
+    <col min="8448" max="8448" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8454" width="17.265625" style="53"/>
+    <col min="8455" max="8455" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8701" width="17.265625" style="53"/>
     <col min="8702" max="8702" width="8" style="53" customWidth="1"/>
-    <col min="8703" max="8703" width="17.28515625" style="53"/>
-    <col min="8704" max="8704" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8710" width="17.28515625" style="53"/>
-    <col min="8711" max="8711" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8957" width="17.28515625" style="53"/>
+    <col min="8703" max="8703" width="17.265625" style="53"/>
+    <col min="8704" max="8704" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8710" width="17.265625" style="53"/>
+    <col min="8711" max="8711" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8957" width="17.265625" style="53"/>
     <col min="8958" max="8958" width="8" style="53" customWidth="1"/>
-    <col min="8959" max="8959" width="17.28515625" style="53"/>
-    <col min="8960" max="8960" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8966" width="17.28515625" style="53"/>
-    <col min="8967" max="8967" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9213" width="17.28515625" style="53"/>
+    <col min="8959" max="8959" width="17.265625" style="53"/>
+    <col min="8960" max="8960" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8966" width="17.265625" style="53"/>
+    <col min="8967" max="8967" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9213" width="17.265625" style="53"/>
     <col min="9214" max="9214" width="8" style="53" customWidth="1"/>
-    <col min="9215" max="9215" width="17.28515625" style="53"/>
-    <col min="9216" max="9216" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9222" width="17.28515625" style="53"/>
-    <col min="9223" max="9223" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9469" width="17.28515625" style="53"/>
+    <col min="9215" max="9215" width="17.265625" style="53"/>
+    <col min="9216" max="9216" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9222" width="17.265625" style="53"/>
+    <col min="9223" max="9223" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9469" width="17.265625" style="53"/>
     <col min="9470" max="9470" width="8" style="53" customWidth="1"/>
-    <col min="9471" max="9471" width="17.28515625" style="53"/>
-    <col min="9472" max="9472" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9478" width="17.28515625" style="53"/>
-    <col min="9479" max="9479" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9725" width="17.28515625" style="53"/>
+    <col min="9471" max="9471" width="17.265625" style="53"/>
+    <col min="9472" max="9472" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9478" width="17.265625" style="53"/>
+    <col min="9479" max="9479" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9725" width="17.265625" style="53"/>
     <col min="9726" max="9726" width="8" style="53" customWidth="1"/>
-    <col min="9727" max="9727" width="17.28515625" style="53"/>
-    <col min="9728" max="9728" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9734" width="17.28515625" style="53"/>
-    <col min="9735" max="9735" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9981" width="17.28515625" style="53"/>
+    <col min="9727" max="9727" width="17.265625" style="53"/>
+    <col min="9728" max="9728" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9734" width="17.265625" style="53"/>
+    <col min="9735" max="9735" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9981" width="17.265625" style="53"/>
     <col min="9982" max="9982" width="8" style="53" customWidth="1"/>
-    <col min="9983" max="9983" width="17.28515625" style="53"/>
-    <col min="9984" max="9984" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9990" width="17.28515625" style="53"/>
-    <col min="9991" max="9991" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10237" width="17.28515625" style="53"/>
+    <col min="9983" max="9983" width="17.265625" style="53"/>
+    <col min="9984" max="9984" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9990" width="17.265625" style="53"/>
+    <col min="9991" max="9991" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10237" width="17.265625" style="53"/>
     <col min="10238" max="10238" width="8" style="53" customWidth="1"/>
-    <col min="10239" max="10239" width="17.28515625" style="53"/>
-    <col min="10240" max="10240" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10246" width="17.28515625" style="53"/>
-    <col min="10247" max="10247" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10493" width="17.28515625" style="53"/>
+    <col min="10239" max="10239" width="17.265625" style="53"/>
+    <col min="10240" max="10240" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10246" width="17.265625" style="53"/>
+    <col min="10247" max="10247" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10493" width="17.265625" style="53"/>
     <col min="10494" max="10494" width="8" style="53" customWidth="1"/>
-    <col min="10495" max="10495" width="17.28515625" style="53"/>
-    <col min="10496" max="10496" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10502" width="17.28515625" style="53"/>
-    <col min="10503" max="10503" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10749" width="17.28515625" style="53"/>
+    <col min="10495" max="10495" width="17.265625" style="53"/>
+    <col min="10496" max="10496" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10502" width="17.265625" style="53"/>
+    <col min="10503" max="10503" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10749" width="17.265625" style="53"/>
     <col min="10750" max="10750" width="8" style="53" customWidth="1"/>
-    <col min="10751" max="10751" width="17.28515625" style="53"/>
-    <col min="10752" max="10752" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10758" width="17.28515625" style="53"/>
-    <col min="10759" max="10759" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11005" width="17.28515625" style="53"/>
+    <col min="10751" max="10751" width="17.265625" style="53"/>
+    <col min="10752" max="10752" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10758" width="17.265625" style="53"/>
+    <col min="10759" max="10759" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11005" width="17.265625" style="53"/>
     <col min="11006" max="11006" width="8" style="53" customWidth="1"/>
-    <col min="11007" max="11007" width="17.28515625" style="53"/>
-    <col min="11008" max="11008" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11014" width="17.28515625" style="53"/>
-    <col min="11015" max="11015" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11261" width="17.28515625" style="53"/>
+    <col min="11007" max="11007" width="17.265625" style="53"/>
+    <col min="11008" max="11008" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11014" width="17.265625" style="53"/>
+    <col min="11015" max="11015" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11261" width="17.265625" style="53"/>
     <col min="11262" max="11262" width="8" style="53" customWidth="1"/>
-    <col min="11263" max="11263" width="17.28515625" style="53"/>
-    <col min="11264" max="11264" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11270" width="17.28515625" style="53"/>
-    <col min="11271" max="11271" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11517" width="17.28515625" style="53"/>
+    <col min="11263" max="11263" width="17.265625" style="53"/>
+    <col min="11264" max="11264" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11270" width="17.265625" style="53"/>
+    <col min="11271" max="11271" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11517" width="17.265625" style="53"/>
     <col min="11518" max="11518" width="8" style="53" customWidth="1"/>
-    <col min="11519" max="11519" width="17.28515625" style="53"/>
-    <col min="11520" max="11520" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11526" width="17.28515625" style="53"/>
-    <col min="11527" max="11527" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11773" width="17.28515625" style="53"/>
+    <col min="11519" max="11519" width="17.265625" style="53"/>
+    <col min="11520" max="11520" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11526" width="17.265625" style="53"/>
+    <col min="11527" max="11527" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11773" width="17.265625" style="53"/>
     <col min="11774" max="11774" width="8" style="53" customWidth="1"/>
-    <col min="11775" max="11775" width="17.28515625" style="53"/>
-    <col min="11776" max="11776" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11782" width="17.28515625" style="53"/>
-    <col min="11783" max="11783" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12029" width="17.28515625" style="53"/>
+    <col min="11775" max="11775" width="17.265625" style="53"/>
+    <col min="11776" max="11776" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11782" width="17.265625" style="53"/>
+    <col min="11783" max="11783" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12029" width="17.265625" style="53"/>
     <col min="12030" max="12030" width="8" style="53" customWidth="1"/>
-    <col min="12031" max="12031" width="17.28515625" style="53"/>
-    <col min="12032" max="12032" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12038" width="17.28515625" style="53"/>
-    <col min="12039" max="12039" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12285" width="17.28515625" style="53"/>
+    <col min="12031" max="12031" width="17.265625" style="53"/>
+    <col min="12032" max="12032" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12038" width="17.265625" style="53"/>
+    <col min="12039" max="12039" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12285" width="17.265625" style="53"/>
     <col min="12286" max="12286" width="8" style="53" customWidth="1"/>
-    <col min="12287" max="12287" width="17.28515625" style="53"/>
-    <col min="12288" max="12288" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12294" width="17.28515625" style="53"/>
-    <col min="12295" max="12295" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12541" width="17.28515625" style="53"/>
+    <col min="12287" max="12287" width="17.265625" style="53"/>
+    <col min="12288" max="12288" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12294" width="17.265625" style="53"/>
+    <col min="12295" max="12295" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12541" width="17.265625" style="53"/>
     <col min="12542" max="12542" width="8" style="53" customWidth="1"/>
-    <col min="12543" max="12543" width="17.28515625" style="53"/>
-    <col min="12544" max="12544" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12550" width="17.28515625" style="53"/>
-    <col min="12551" max="12551" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12797" width="17.28515625" style="53"/>
+    <col min="12543" max="12543" width="17.265625" style="53"/>
+    <col min="12544" max="12544" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12550" width="17.265625" style="53"/>
+    <col min="12551" max="12551" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12797" width="17.265625" style="53"/>
     <col min="12798" max="12798" width="8" style="53" customWidth="1"/>
-    <col min="12799" max="12799" width="17.28515625" style="53"/>
-    <col min="12800" max="12800" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12806" width="17.28515625" style="53"/>
-    <col min="12807" max="12807" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13053" width="17.28515625" style="53"/>
+    <col min="12799" max="12799" width="17.265625" style="53"/>
+    <col min="12800" max="12800" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12806" width="17.265625" style="53"/>
+    <col min="12807" max="12807" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13053" width="17.265625" style="53"/>
     <col min="13054" max="13054" width="8" style="53" customWidth="1"/>
-    <col min="13055" max="13055" width="17.28515625" style="53"/>
-    <col min="13056" max="13056" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13062" width="17.28515625" style="53"/>
-    <col min="13063" max="13063" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13309" width="17.28515625" style="53"/>
+    <col min="13055" max="13055" width="17.265625" style="53"/>
+    <col min="13056" max="13056" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13062" width="17.265625" style="53"/>
+    <col min="13063" max="13063" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13309" width="17.265625" style="53"/>
     <col min="13310" max="13310" width="8" style="53" customWidth="1"/>
-    <col min="13311" max="13311" width="17.28515625" style="53"/>
-    <col min="13312" max="13312" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13318" width="17.28515625" style="53"/>
-    <col min="13319" max="13319" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13565" width="17.28515625" style="53"/>
+    <col min="13311" max="13311" width="17.265625" style="53"/>
+    <col min="13312" max="13312" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13318" width="17.265625" style="53"/>
+    <col min="13319" max="13319" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13565" width="17.265625" style="53"/>
     <col min="13566" max="13566" width="8" style="53" customWidth="1"/>
-    <col min="13567" max="13567" width="17.28515625" style="53"/>
-    <col min="13568" max="13568" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13574" width="17.28515625" style="53"/>
-    <col min="13575" max="13575" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13821" width="17.28515625" style="53"/>
+    <col min="13567" max="13567" width="17.265625" style="53"/>
+    <col min="13568" max="13568" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13574" width="17.265625" style="53"/>
+    <col min="13575" max="13575" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13821" width="17.265625" style="53"/>
     <col min="13822" max="13822" width="8" style="53" customWidth="1"/>
-    <col min="13823" max="13823" width="17.28515625" style="53"/>
-    <col min="13824" max="13824" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13830" width="17.28515625" style="53"/>
-    <col min="13831" max="13831" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14077" width="17.28515625" style="53"/>
+    <col min="13823" max="13823" width="17.265625" style="53"/>
+    <col min="13824" max="13824" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13830" width="17.265625" style="53"/>
+    <col min="13831" max="13831" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14077" width="17.265625" style="53"/>
     <col min="14078" max="14078" width="8" style="53" customWidth="1"/>
-    <col min="14079" max="14079" width="17.28515625" style="53"/>
-    <col min="14080" max="14080" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14086" width="17.28515625" style="53"/>
-    <col min="14087" max="14087" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14333" width="17.28515625" style="53"/>
+    <col min="14079" max="14079" width="17.265625" style="53"/>
+    <col min="14080" max="14080" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14086" width="17.265625" style="53"/>
+    <col min="14087" max="14087" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14333" width="17.265625" style="53"/>
     <col min="14334" max="14334" width="8" style="53" customWidth="1"/>
-    <col min="14335" max="14335" width="17.28515625" style="53"/>
-    <col min="14336" max="14336" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14342" width="17.28515625" style="53"/>
-    <col min="14343" max="14343" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14589" width="17.28515625" style="53"/>
+    <col min="14335" max="14335" width="17.265625" style="53"/>
+    <col min="14336" max="14336" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14342" width="17.265625" style="53"/>
+    <col min="14343" max="14343" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14589" width="17.265625" style="53"/>
     <col min="14590" max="14590" width="8" style="53" customWidth="1"/>
-    <col min="14591" max="14591" width="17.28515625" style="53"/>
-    <col min="14592" max="14592" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14598" width="17.28515625" style="53"/>
-    <col min="14599" max="14599" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14845" width="17.28515625" style="53"/>
+    <col min="14591" max="14591" width="17.265625" style="53"/>
+    <col min="14592" max="14592" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14598" width="17.265625" style="53"/>
+    <col min="14599" max="14599" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14845" width="17.265625" style="53"/>
     <col min="14846" max="14846" width="8" style="53" customWidth="1"/>
-    <col min="14847" max="14847" width="17.28515625" style="53"/>
-    <col min="14848" max="14848" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14854" width="17.28515625" style="53"/>
-    <col min="14855" max="14855" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15101" width="17.28515625" style="53"/>
+    <col min="14847" max="14847" width="17.265625" style="53"/>
+    <col min="14848" max="14848" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14854" width="17.265625" style="53"/>
+    <col min="14855" max="14855" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15101" width="17.265625" style="53"/>
     <col min="15102" max="15102" width="8" style="53" customWidth="1"/>
-    <col min="15103" max="15103" width="17.28515625" style="53"/>
-    <col min="15104" max="15104" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15110" width="17.28515625" style="53"/>
-    <col min="15111" max="15111" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15357" width="17.28515625" style="53"/>
+    <col min="15103" max="15103" width="17.265625" style="53"/>
+    <col min="15104" max="15104" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15110" width="17.265625" style="53"/>
+    <col min="15111" max="15111" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15357" width="17.265625" style="53"/>
     <col min="15358" max="15358" width="8" style="53" customWidth="1"/>
-    <col min="15359" max="15359" width="17.28515625" style="53"/>
-    <col min="15360" max="15360" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15366" width="17.28515625" style="53"/>
-    <col min="15367" max="15367" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15613" width="17.28515625" style="53"/>
+    <col min="15359" max="15359" width="17.265625" style="53"/>
+    <col min="15360" max="15360" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15366" width="17.265625" style="53"/>
+    <col min="15367" max="15367" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15613" width="17.265625" style="53"/>
     <col min="15614" max="15614" width="8" style="53" customWidth="1"/>
-    <col min="15615" max="15615" width="17.28515625" style="53"/>
-    <col min="15616" max="15616" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15622" width="17.28515625" style="53"/>
-    <col min="15623" max="15623" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15869" width="17.28515625" style="53"/>
+    <col min="15615" max="15615" width="17.265625" style="53"/>
+    <col min="15616" max="15616" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15622" width="17.265625" style="53"/>
+    <col min="15623" max="15623" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15869" width="17.265625" style="53"/>
     <col min="15870" max="15870" width="8" style="53" customWidth="1"/>
-    <col min="15871" max="15871" width="17.28515625" style="53"/>
-    <col min="15872" max="15872" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15878" width="17.28515625" style="53"/>
-    <col min="15879" max="15879" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16125" width="17.28515625" style="53"/>
+    <col min="15871" max="15871" width="17.265625" style="53"/>
+    <col min="15872" max="15872" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15878" width="17.265625" style="53"/>
+    <col min="15879" max="15879" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16125" width="17.265625" style="53"/>
     <col min="16126" max="16126" width="8" style="53" customWidth="1"/>
-    <col min="16127" max="16127" width="17.28515625" style="53"/>
-    <col min="16128" max="16128" width="33.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16134" width="17.28515625" style="53"/>
-    <col min="16135" max="16135" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="20.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="17.28515625" style="53"/>
+    <col min="16127" max="16127" width="17.265625" style="53"/>
+    <col min="16128" max="16128" width="33.86328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16134" width="17.265625" style="53"/>
+    <col min="16135" max="16135" width="24.73046875" style="53" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="31.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="20.265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="17.265625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="30.75" x14ac:dyDescent="0.75">
       <c r="A1" s="8"/>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -5976,7 +5976,7 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -5997,7 +5997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
@@ -6018,7 +6018,7 @@
       <c r="Z3" s="75"/>
       <c r="AA3" s="76"/>
     </row>
-    <row r="4" spans="1:27" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="54" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="54" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="54" t="s">
         <v>29</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G5" s="73" t="s">
         <v>8</v>
@@ -6161,7 +6161,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B6" s="54" t="s">
         <v>30</v>
       </c>
@@ -6172,10 +6172,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G6" s="73" t="s">
         <v>8</v>
@@ -6220,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="54" t="s">
         <v>31</v>
       </c>
@@ -6231,10 +6231,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G7" s="73" t="s">
         <v>8</v>
@@ -6285,7 +6285,7 @@
       <c r="Y7" s="53"/>
       <c r="Z7" s="53"/>
     </row>
-    <row r="8" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="54" t="s">
         <v>32</v>
       </c>
@@ -6296,10 +6296,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G8" s="73" t="s">
         <v>8</v>
@@ -6341,9 +6341,9 @@
       <c r="Y8" s="53"/>
       <c r="Z8" s="53"/>
     </row>
-    <row r="9" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>44</v>
@@ -6352,10 +6352,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G9" s="73" t="s">
         <v>8</v>
@@ -6406,7 +6406,7 @@
       <c r="Y9" s="53"/>
       <c r="Z9" s="53"/>
     </row>
-    <row r="10" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="54" t="s">
         <v>33</v>
       </c>
@@ -6417,10 +6417,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G10" s="73" t="s">
         <v>8</v>
@@ -6462,9 +6462,9 @@
       <c r="Y10" s="53"/>
       <c r="Z10" s="53"/>
     </row>
-    <row r="11" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="54" t="s">
         <v>46</v>
@@ -6473,10 +6473,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G11" s="73" t="s">
         <v>8</v>
@@ -6527,9 +6527,9 @@
       <c r="Y11" s="53"/>
       <c r="Z11" s="53"/>
     </row>
-    <row r="12" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="54" t="s">
         <v>47</v>
@@ -6538,10 +6538,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G12" s="73" t="s">
         <v>8</v>
@@ -6592,9 +6592,9 @@
       <c r="Y12" s="53"/>
       <c r="Z12" s="53"/>
     </row>
-    <row r="13" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="54" t="s">
         <v>48</v>
@@ -6603,10 +6603,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G13" s="73" t="s">
         <v>8</v>
@@ -6657,7 +6657,7 @@
       <c r="Y13" s="53"/>
       <c r="Z13" s="53"/>
     </row>
-    <row r="14" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="54" t="s">
         <v>34</v>
       </c>
@@ -6668,10 +6668,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G14" s="73" t="s">
         <v>8</v>
@@ -6713,7 +6713,7 @@
       <c r="Y14" s="53"/>
       <c r="Z14" s="53"/>
     </row>
-    <row r="15" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B15" s="54" t="s">
         <v>35</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G15" s="73" t="s">
         <v>8</v>
@@ -6778,7 +6778,7 @@
       <c r="Y15" s="53"/>
       <c r="Z15" s="53"/>
     </row>
-    <row r="16" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B16" s="54" t="s">
         <v>36</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G16" s="73" t="s">
         <v>8</v>
@@ -6846,7 +6846,7 @@
       <c r="Y16" s="53"/>
       <c r="Z16" s="53"/>
     </row>
-    <row r="17" spans="2:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B17" s="54" t="s">
         <v>37</v>
       </c>
@@ -6857,10 +6857,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G17" s="73" t="s">
         <v>8</v>
@@ -6905,7 +6905,7 @@
       <c r="Y17" s="53"/>
       <c r="Z17" s="53"/>
     </row>
-    <row r="18" spans="2:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B18" s="54" t="s">
         <v>38</v>
       </c>
@@ -6916,10 +6916,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G18" s="73" t="s">
         <v>8</v>
@@ -6964,7 +6964,7 @@
       <c r="Y18" s="53"/>
       <c r="Z18" s="53"/>
     </row>
-    <row r="19" spans="2:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B19" s="54" t="s">
         <v>39</v>
       </c>
@@ -6975,10 +6975,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="73" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G19" s="73" t="s">
         <v>8</v>
@@ -7032,9 +7032,9 @@
       <c r="Y19" s="53"/>
       <c r="Z19" s="53"/>
     </row>
-    <row r="20" spans="2:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B20" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>55</v>
@@ -7043,10 +7043,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G20" s="56" t="s">
         <v>8</v>
@@ -7100,7 +7100,7 @@
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
       <c r="D21" s="73"/>
@@ -7123,7 +7123,7 @@
       <c r="U21" s="91"/>
       <c r="V21" s="91"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B22" s="25" t="s">
         <v>0</v>
       </c>
@@ -7133,7 +7133,7 @@
       <c r="U22" s="91"/>
       <c r="V22" s="91"/>
     </row>
-    <row r="23" spans="2:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" ht="21" x14ac:dyDescent="0.45">
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="T23" s="63"/>
@@ -7143,9 +7143,9 @@
       <c r="X23" s="54"/>
       <c r="Y23" s="54"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B29" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="60"/>
@@ -7153,7 +7153,7 @@
       <c r="F29" s="108"/>
       <c r="G29" s="109"/>
       <c r="H29" s="134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I29" s="134"/>
       <c r="J29" s="134"/>
@@ -7162,7 +7162,7 @@
       <c r="M29" s="110"/>
       <c r="N29" s="24"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
       <c r="D30" s="84"/>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B31" s="47"/>
       <c r="C31" s="51" t="s">
         <v>18</v>
@@ -7233,10 +7233,10 @@
         <v>85</v>
       </c>
       <c r="N31" s="90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B32" s="47"/>
       <c r="C32" s="51" t="s">
         <v>19</v>
@@ -7275,10 +7275,10 @@
         <v>15.225225225225225</v>
       </c>
       <c r="N32" s="90" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" s="48"/>
       <c r="C33" s="52" t="s">
         <v>20</v>
@@ -7317,10 +7317,10 @@
         <v>96.800000000000011</v>
       </c>
       <c r="N33" s="90" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="28" t="s">
         <v>17</v>
       </c>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" s="28" t="s">
         <v>17</v>
       </c>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36" s="29" t="s">
         <v>17</v>
       </c>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="60"/>
@@ -7465,7 +7465,7 @@
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="60"/>
@@ -7481,7 +7481,7 @@
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="60"/>
@@ -7497,7 +7497,7 @@
       <c r="N39" s="26"/>
       <c r="O39" s="24"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
       <c r="D40" s="60"/>
@@ -7513,15 +7513,15 @@
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B41" s="93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="94"/>
       <c r="D41" s="94"/>
       <c r="E41" s="95"/>
       <c r="F41" s="132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G41" s="132"/>
       <c r="H41" s="132"/>
@@ -7533,12 +7533,12 @@
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B42" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="96" t="s">
         <v>62</v>
-      </c>
-      <c r="C42" s="96" t="s">
-        <v>63</v>
       </c>
       <c r="D42" s="97">
         <v>2010</v>
@@ -7565,12 +7565,12 @@
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B43" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="100" t="s">
         <v>64</v>
-      </c>
-      <c r="C43" s="100" t="s">
-        <v>65</v>
       </c>
       <c r="D43" s="101">
         <v>91</v>
@@ -7597,12 +7597,12 @@
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B44" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="100" t="s">
         <v>66</v>
-      </c>
-      <c r="C44" s="100" t="s">
-        <v>67</v>
       </c>
       <c r="D44" s="101">
         <v>8.6999999999999993</v>
@@ -7630,12 +7630,12 @@
       <c r="N44" s="24"/>
       <c r="O44" s="24"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B45" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="103" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" s="103" t="s">
-        <v>69</v>
       </c>
       <c r="D45" s="104">
         <v>108</v>
@@ -7663,9 +7663,9 @@
       <c r="N45" s="24"/>
       <c r="O45" s="24"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B46" s="106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="107"/>
       <c r="D46" s="27"/>
@@ -7681,7 +7681,7 @@
       <c r="N46" s="24"/>
       <c r="O46" s="24"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
       <c r="D47" s="60"/>
@@ -7697,7 +7697,7 @@
       <c r="N47" s="24"/>
       <c r="O47" s="24"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="60"/>
@@ -7713,7 +7713,7 @@
       <c r="N48" s="24"/>
       <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="60"/>
@@ -7729,7 +7729,7 @@
       <c r="N49" s="24"/>
       <c r="O49" s="24"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
       <c r="D50" s="60"/>
@@ -7766,14 +7766,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="61" t="s">
         <v>28</v>
       </c>
@@ -7789,12 +7789,12 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A6" s="64"/>
       <c r="B6" s="65" t="s">
         <v>27</v>
@@ -7810,7 +7810,7 @@
       <c r="I6" s="136"/>
       <c r="J6" s="137"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="67">
         <v>2000</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="69">
         <v>2001</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="69">
         <v>2002</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>106.04453870625663</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="69">
         <v>2003</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>126.10340479192939</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="69">
         <v>2004</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="69">
         <v>2005</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="69">
         <v>2006</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>113.94721389560772</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="69">
         <v>2007</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>116.6819470291023</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="69">
         <v>2008</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>120.99917906917909</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="69">
         <v>2009</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>122.20917085987088</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="69">
         <v>2010</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>124.77556344792816</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="69">
         <v>2011</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>0.77734139438083416</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="69">
         <v>2012</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>131.98833966859911</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="69">
         <v>2013</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>133.9681647636281</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="69">
         <v>2014</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="72">
         <v>2015</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="53" t="s">
         <v>24</v>
       </c>
